--- a/data/Lo Prado.xlsx
+++ b/data/Lo Prado.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Lo Prado.xlsx
+++ b/data/Lo Prado.xlsx
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Lo Prado.xlsx
+++ b/data/Lo Prado.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Lo Prado.xlsx
+++ b/data/Lo Prado.xlsx
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">

--- a/data/Lo Prado.xlsx
+++ b/data/Lo Prado.xlsx
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
